--- a/com.DemowebShop/src/test/resources/TestData/DemoWebData.xlsx
+++ b/com.DemowebShop/src/test/resources/TestData/DemoWebData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\OneDrive\Desktop\A5Batch\com.DemowebShop\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\git\A6ProjectAutomation\com.DemowebShop\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A97901D-D75C-4312-B829-AF8335271E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB1C88A-1579-491C-B358-EC766DA2F3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{47C04403-0721-42B2-976B-BB369D41906C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{47C04403-0721-42B2-976B-BB369D41906C}"/>
   </bookViews>
   <sheets>
     <sheet name="RegData" sheetId="1" r:id="rId1"/>
@@ -157,10 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BD9618-F2F5-4163-9BC0-667BE357AEE3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="202" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="202" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +567,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -582,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EF6FF9-D863-4FAA-9839-87A3A1DA087C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="273" workbookViewId="0">
+    <sheetView zoomScale="273" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
